--- a/outputs/mecs5_4_wrangled.xlsx
+++ b/outputs/mecs5_4_wrangled.xlsx
@@ -513,7 +513,7 @@
         <v>51</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -627,7 +627,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F9">
         <v>6</v>
@@ -651,13 +651,13 @@
         </is>
       </c>
       <c r="C10">
-        <v>25</v>
+        <v>10.5</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F10">
         <v>26</v>
@@ -681,7 +681,7 @@
         </is>
       </c>
       <c r="C11">
-        <v>20</v>
+        <v>5.5</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -3351,7 +3351,7 @@
         </is>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="D100">
         <v>0</v>
@@ -3381,7 +3381,7 @@
         </is>
       </c>
       <c r="C101">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="D101">
         <v>0</v>
@@ -5520,7 +5520,7 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G172">
         <v>0</v>
@@ -6717,7 +6717,7 @@
         <v>0</v>
       </c>
       <c r="E212">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F212">
         <v>2</v>
@@ -6810,7 +6810,7 @@
         <v>0</v>
       </c>
       <c r="F215">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G215">
         <v>0</v>
@@ -6870,7 +6870,7 @@
         <v>0</v>
       </c>
       <c r="F217">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G217">
         <v>0</v>
@@ -6927,7 +6927,7 @@
         <v>0</v>
       </c>
       <c r="E219">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F219">
         <v>0</v>
@@ -7260,7 +7260,7 @@
         <v>0</v>
       </c>
       <c r="F230">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G230">
         <v>0</v>
@@ -8517,7 +8517,7 @@
         <v>0</v>
       </c>
       <c r="E272">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F272">
         <v>15</v>
@@ -8670,7 +8670,7 @@
         <v>0</v>
       </c>
       <c r="F277">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G277">
         <v>0</v>
@@ -9381,7 +9381,7 @@
         </is>
       </c>
       <c r="C301">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D301">
         <v>0</v>
@@ -9390,7 +9390,7 @@
         <v>0</v>
       </c>
       <c r="F301">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G301">
         <v>0</v>
@@ -11430,7 +11430,7 @@
         <v>0</v>
       </c>
       <c r="F369">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G369">
         <v>0</v>
@@ -12723,7 +12723,7 @@
         <v>4</v>
       </c>
       <c r="G412">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H412">
         <v>0</v>
@@ -14520,7 +14520,7 @@
         <v>0</v>
       </c>
       <c r="F472">
-        <v>16</v>
+        <v>1.5</v>
       </c>
       <c r="G472">
         <v>0</v>
@@ -14541,7 +14541,7 @@
         </is>
       </c>
       <c r="C473">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D473">
         <v>0</v>
@@ -14580,10 +14580,10 @@
         <v>0</v>
       </c>
       <c r="F474">
-        <v>19</v>
+        <v>4.5</v>
       </c>
       <c r="G474">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H474">
         <v>0</v>
@@ -14760,7 +14760,7 @@
         <v>0</v>
       </c>
       <c r="F480">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G480">
         <v>0</v>
@@ -14970,7 +14970,7 @@
         <v>0</v>
       </c>
       <c r="F487">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="G487">
         <v>0</v>
@@ -15030,7 +15030,7 @@
         <v>0</v>
       </c>
       <c r="F489">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="G489">
         <v>0</v>
@@ -16110,7 +16110,7 @@
         <v>0</v>
       </c>
       <c r="F525">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G525">
         <v>0</v>
@@ -16341,7 +16341,7 @@
         </is>
       </c>
       <c r="C533">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D533">
         <v>0</v>
@@ -21141,7 +21141,7 @@
         </is>
       </c>
       <c r="C693">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D693">
         <v>0</v>
@@ -21291,7 +21291,7 @@
         </is>
       </c>
       <c r="C698">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D698">
         <v>0</v>
@@ -21330,7 +21330,7 @@
         <v>0</v>
       </c>
       <c r="F699">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G699">
         <v>0</v>
@@ -21501,7 +21501,7 @@
         </is>
       </c>
       <c r="C705">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D705">
         <v>0</v>
@@ -21531,7 +21531,7 @@
         </is>
       </c>
       <c r="C706">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D706">
         <v>0</v>
@@ -21657,13 +21657,13 @@
         <v>0</v>
       </c>
       <c r="E710">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F710">
         <v>26</v>
       </c>
       <c r="G710">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H710">
         <v>0</v>
@@ -21780,13 +21780,13 @@
         <v>0</v>
       </c>
       <c r="F714">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G714">
         <v>0</v>
       </c>
       <c r="H714">
-        <v>-1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="715">
@@ -21957,7 +21957,7 @@
         <v>0</v>
       </c>
       <c r="E720">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F720">
         <v>1</v>
@@ -31917,7 +31917,7 @@
         <v>0</v>
       </c>
       <c r="E1052">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F1052">
         <v>124</v>
@@ -31950,7 +31950,7 @@
         <v>0</v>
       </c>
       <c r="F1053">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G1053">
         <v>0</v>
@@ -32070,7 +32070,7 @@
         <v>0</v>
       </c>
       <c r="F1057">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G1057">
         <v>0</v>
@@ -32091,7 +32091,7 @@
         </is>
       </c>
       <c r="C1058">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1058">
         <v>0</v>
@@ -32130,7 +32130,7 @@
         <v>0</v>
       </c>
       <c r="F1059">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G1059">
         <v>0</v>
@@ -32247,7 +32247,7 @@
         <v>0</v>
       </c>
       <c r="E1063">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F1063">
         <v>0</v>
@@ -32331,7 +32331,7 @@
         </is>
       </c>
       <c r="C1066">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D1066">
         <v>0</v>
@@ -32340,7 +32340,7 @@
         <v>0</v>
       </c>
       <c r="F1066">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G1066">
         <v>0</v>
@@ -32400,7 +32400,7 @@
         <v>0</v>
       </c>
       <c r="F1068">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G1068">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>19</v>
       </c>
       <c r="G1070">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H1070">
         <v>0</v>
@@ -32541,7 +32541,7 @@
         </is>
       </c>
       <c r="C1073">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1073">
         <v>0</v>
@@ -32697,7 +32697,7 @@
         <v>0</v>
       </c>
       <c r="E1078">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F1078">
         <v>0</v>
@@ -32781,7 +32781,7 @@
         </is>
       </c>
       <c r="C1081">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D1081">
         <v>0</v>
@@ -32970,7 +32970,7 @@
         <v>0</v>
       </c>
       <c r="F1087">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G1087">
         <v>0</v>
@@ -33741,7 +33741,7 @@
         </is>
       </c>
       <c r="C1113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1113">
         <v>0</v>
@@ -33780,7 +33780,7 @@
         <v>0</v>
       </c>
       <c r="F1114">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G1114">
         <v>0</v>
@@ -33930,7 +33930,7 @@
         <v>0</v>
       </c>
       <c r="F1119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G1119">
         <v>0</v>
@@ -34581,7 +34581,7 @@
         </is>
       </c>
       <c r="C1141">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D1141">
         <v>0</v>
@@ -34590,7 +34590,7 @@
         <v>0</v>
       </c>
       <c r="F1141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G1141">
         <v>0</v>
@@ -35940,7 +35940,7 @@
         <v>0</v>
       </c>
       <c r="F1186">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G1186">
         <v>0</v>
@@ -36480,7 +36480,7 @@
         <v>0</v>
       </c>
       <c r="F1204">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G1204">
         <v>0</v>
@@ -36570,7 +36570,7 @@
         <v>0</v>
       </c>
       <c r="F1207">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G1207">
         <v>0</v>
@@ -36720,7 +36720,7 @@
         <v>0</v>
       </c>
       <c r="F1212">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G1212">
         <v>0</v>
@@ -37071,7 +37071,7 @@
         </is>
       </c>
       <c r="C1224">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D1224">
         <v>0</v>
@@ -37080,7 +37080,7 @@
         <v>0</v>
       </c>
       <c r="F1224">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G1224">
         <v>0</v>
@@ -37251,7 +37251,7 @@
         </is>
       </c>
       <c r="C1230">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D1230">
         <v>0</v>
@@ -37260,7 +37260,7 @@
         <v>0</v>
       </c>
       <c r="F1230">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G1230">
         <v>0</v>
